--- a/realme/April/Others/Natore Retail list updated.xlsx
+++ b/realme/April/Others/Natore Retail list updated.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1394,20 +1394,20 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1484,20 +1484,20 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1520,20 +1520,20 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
     </row>
